--- a/schema/upcoming_tournaments_T2.xlsx
+++ b/schema/upcoming_tournaments_T2.xlsx
@@ -1239,35 +1239,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Scrabble</t>
+          <t>Ticket to Ride</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>766</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>311</v>
       </c>
       <c r="G22" t="n">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>evening tournament</t>
+          <t>free snacks and drinks</t>
         </is>
       </c>
     </row>
@@ -1277,35 +1277,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Scrabble</t>
+          <t>Catan</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>197</v>
+        <v>903</v>
       </c>
       <c r="F23" t="n">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>238</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>free snacks and drinks</t>
+          <t>do not bring children</t>
         </is>
       </c>
     </row>
@@ -1315,35 +1315,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ticket to Ride</t>
+          <t>Scrabble</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="F24" t="n">
-        <v>117</v>
+        <v>302</v>
       </c>
       <c r="G24" t="n">
-        <v>279</v>
+        <v>88</v>
       </c>
       <c r="H24" t="n">
-        <v>351</v>
+        <v>56</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>evening tournament</t>
+          <t>do not bring children</t>
         </is>
       </c>
     </row>
@@ -1353,35 +1353,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Monopoly</t>
+          <t>Ticket to Ride</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="F25" t="n">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>412</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>evening tournament</t>
+          <t>do not bring children</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1400,26 +1400,26 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E26" t="n">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>345</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>evening tournament</t>
+          <t>rents disabled during tournament</t>
         </is>
       </c>
     </row>
